--- a/01 - BDD/01 - MCD/zerodefo.xlsx
+++ b/01 - BDD/01 - MCD/zerodefo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Modeles</t>
   </si>
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>Desc5</t>
+  </si>
+  <si>
+    <t>Insert modeles :</t>
+  </si>
+  <si>
+    <t>INSERT INTO `modeles`(`IdModele`, `NomModele`, `DateModele`) VALUES (</t>
+  </si>
+  <si>
+    <t>INSERT INTO `produits`(`IdProduit`, `NumSerie`, `NumProduit`, `IdModele`) VALUES (</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Insert produits :</t>
   </si>
 </sst>
 </file>
@@ -160,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,13 +260,13 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,156 +556,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>44330</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
         <v>142354</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <f>A4</f>
         <v>zdzadad4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>41012</v>
       </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
         <v>965062</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <f>A5</f>
         <v>ddadazd6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>36427</v>
       </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1">
         <v>550346</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <f>A3</f>
         <v>Adezd56f</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="A6" s="3"/>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1">
         <v>550346</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <f>A4</f>
         <v>zdzadad4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
@@ -702,192 +720,241 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>45730</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f>H10+24</f>
         <v>45754</v>
       </c>
-      <c r="K10" s="2">
-        <f>E6</f>
+      <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="L10" s="2">
-        <f>A11</f>
+      <c r="L10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>44664</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" ref="J11:J12" si="0">H11+24</f>
         <v>44688</v>
       </c>
-      <c r="K11" s="2">
-        <f>E4</f>
+      <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
-        <f>A13</f>
+      <c r="L11" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <f>A11</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>46654</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>46678</v>
       </c>
-      <c r="K12" s="2">
-        <f>E4</f>
+      <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="2">
-        <f>A12</f>
+      <c r="L12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2">
-        <f>A12</f>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2">
-        <f>A10</f>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f>$B$18&amp;"'"&amp;A3&amp;"',"&amp;"'"&amp;B3&amp;"',"&amp;"'"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO `modeles`(`IdModele`, `NomModele`, `DateModele`) VALUES ('Adezd56f','Modele1','44330');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:B21" si="1">$B$18&amp;"'"&amp;A4&amp;"',"&amp;"'"&amp;B4&amp;"',"&amp;"'"&amp;C4&amp;"');"</f>
+        <v>INSERT INTO `modeles`(`IdModele`, `NomModele`, `DateModele`) VALUES ('zdzadad4','Modele2','41012');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `modeles`(`IdModele`, `NomModele`, `DateModele`) VALUES ('ddadazd6','Modele3','36427');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f>$B$23&amp;"'"&amp;E4&amp;"',"&amp;"'"&amp;F3&amp;"',"&amp;"'"&amp;G3&amp;"',"&amp;"'"&amp;H3&amp;"');"</f>
+        <v>INSERT INTO `produits`(`IdProduit`, `NumSerie`, `NumProduit`, `IdModele`) VALUES ('null','142354','ER6N','zdzadad4');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:B26" si="2">$B$23&amp;"'"&amp;E5&amp;"',"&amp;"'"&amp;F4&amp;"',"&amp;"'"&amp;G4&amp;"',"&amp;"'"&amp;H4&amp;"');"</f>
+        <v>INSERT INTO `produits`(`IdProduit`, `NumSerie`, `NumProduit`, `IdModele`) VALUES ('null','965062','QS4F','ddadazd6');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `produits`(`IdProduit`, `NumSerie`, `NumProduit`, `IdModele`) VALUES ('null','550346','EGD5','Adezd56f');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f>$B$23&amp;"'"&amp;E7&amp;"',"&amp;"'"&amp;F6&amp;"',"&amp;"'"&amp;G6&amp;"',"&amp;"'"&amp;H6&amp;"');"</f>
+        <v>INSERT INTO `produits`(`IdProduit`, `NumSerie`, `NumProduit`, `IdModele`) VALUES ('','550346','EGD5','zdzadad4');</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01 - BDD/01 - MCD/zerodefo.xlsx
+++ b/01 - BDD/01 - MCD/zerodefo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-07-01\01 - BDD\01 - MCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\59011vmfic02.exchange.ad.afpanet\59011-data\grp-07\59011-07-01\01 - BDD\01 - MCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
